--- a/biology/Médecine/Hémosidérose/Hémosidérose.xlsx
+++ b/biology/Médecine/Hémosidérose/Hémosidérose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mosid%C3%A9rose</t>
+          <t>Hémosidérose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hémosidérose est l’accumulation d’hémosidérine dans un tissu ou dans des cellules. Elle s'observe chez l’humain et chez d’autres mammifères (les chevaux par exemple[1])
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hémosidérose est l’accumulation d’hémosidérine dans un tissu ou dans des cellules. Elle s'observe chez l’humain et chez d’autres mammifères (les chevaux par exemple)
 On distingue deux types d’hémosidérose :  
 l’hémosidérose primitive (ou hémochromatose) ;
 l’hémosidérose secondaire.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mosid%C3%A9rose</t>
+          <t>Hémosidérose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hémosidérose peut avoir plusieurs causes :
 elle peut être induite par des transfusions répétées à la suite de maladies héréditaires de l’hémoglobine (exemple : Thalassémie) ;
-elle peut faire suite à des intoxications par certains métaux (cuivre, zinc peuvent être source d’hémosidérose) ; on a récemment décelé que le tungstène pouvait aussi poser problème lors de l’étude des impacts sanitaires de l’utilisation de grenaille de chasse alternatives au plomb sur les oiseaux[2] : une hémosidérose a été observée chez des canards ayant (expérimentalement) ingéré quelques billes en alliage tungstène-acier et, moindrement, des billes "tungstène-polymère"[2], sans effet apparent toutefois sur la condition physique des oiseaux testés[3].</t>
+elle peut faire suite à des intoxications par certains métaux (cuivre, zinc peuvent être source d’hémosidérose) ; on a récemment décelé que le tungstène pouvait aussi poser problème lors de l’étude des impacts sanitaires de l’utilisation de grenaille de chasse alternatives au plomb sur les oiseaux : une hémosidérose a été observée chez des canards ayant (expérimentalement) ingéré quelques billes en alliage tungstène-acier et, moindrement, des billes "tungstène-polymère", sans effet apparent toutefois sur la condition physique des oiseaux testés.</t>
         </is>
       </c>
     </row>
